--- a/src/.res/Book2.xlsx
+++ b/src/.res/Book2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokel\source\repos\ResultChecker\src\.res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\ResultChecker\src\.res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E237A9-440E-40E1-AB8E-B1C895FBDF97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893B02E7-1F63-49FB-985D-30207C90B1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{4D8256D3-EB8C-44C6-AD72-D76D3B376335}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D8256D3-EB8C-44C6-AD72-D76D3B376335}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>Session</t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>admin@ark.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +131,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,13 +161,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,17 +485,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9EE0A5-58D9-4639-8F43-8BE889131A73}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -517,11 +532,11 @@
       <c r="E2">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -537,11 +552,11 @@
       <c r="E3">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -557,11 +572,11 @@
       <c r="E4">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -577,11 +592,11 @@
       <c r="E5">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -597,11 +612,11 @@
       <c r="E6">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -617,11 +632,11 @@
       <c r="E7">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -637,11 +652,11 @@
       <c r="E8">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -657,11 +672,11 @@
       <c r="E9">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -677,11 +692,11 @@
       <c r="E10">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -697,11 +712,11 @@
       <c r="E11">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -717,11 +732,11 @@
       <c r="E12">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -737,11 +752,11 @@
       <c r="E13">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -757,11 +772,11 @@
       <c r="E14">
         <v>35</v>
       </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -777,11 +792,11 @@
       <c r="E15">
         <v>36</v>
       </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -797,11 +812,11 @@
       <c r="E16">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -817,11 +832,11 @@
       <c r="E17">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -837,12 +852,15 @@
       <c r="E18">
         <v>39</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{4ED5B015-37DC-4BCD-AA22-8E07F08C1120}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>